--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-MedicationStatement.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-MedicationStatement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-MedicationStatement.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-MedicationStatement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>2.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-MedicationStatement.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-MedicationStatement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="449">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.3.0</t>
+    <t>2.2.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -272,6 +272,10 @@
 Status=Intended +NotTaken= F = Will be taking (not started) Status=Completed + NotTaken=F = Taken in past Status=In Error + NotTaken=N/A = In Error.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1541,10 +1545,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1985,13 +1989,13 @@
         <v>74</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>74</v>
@@ -2002,10 +2006,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2016,7 +2020,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -2025,19 +2029,19 @@
         <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2087,13 +2091,13 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -2116,10 +2120,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2130,7 +2134,7 @@
         <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>74</v>
@@ -2139,16 +2143,16 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2199,19 +2203,19 @@
         <v>74</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>74</v>
@@ -2228,10 +2232,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2242,28 +2246,28 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2313,19 +2317,19 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
@@ -2342,10 +2346,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2356,7 +2360,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -2368,16 +2372,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2403,13 +2407,13 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -2427,19 +2431,19 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
@@ -2456,21 +2460,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>74</v>
@@ -2482,16 +2486,16 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2541,25 +2545,25 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>74</v>
@@ -2570,14 +2574,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2596,16 +2600,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2655,7 +2659,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2673,7 +2677,7 @@
         <v>74</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>74</v>
@@ -2684,14 +2688,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2710,16 +2714,16 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2769,7 +2773,7 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2781,13 +2785,13 @@
         <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>74</v>
@@ -2798,14 +2802,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2818,25 +2822,25 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2885,7 +2889,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2897,13 +2901,13 @@
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>74</v>
@@ -2914,10 +2918,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2937,19 +2941,19 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2987,17 +2991,17 @@
         <v>74</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -3009,16 +3013,16 @@
         <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>74</v>
@@ -3026,13 +3030,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>74</v>
@@ -3042,7 +3046,7 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -3051,19 +3055,19 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3113,7 +3117,7 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -3125,16 +3129,16 @@
         <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>74</v>
@@ -3142,10 +3146,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3156,7 +3160,7 @@
         <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>74</v>
@@ -3168,13 +3172,13 @@
         <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3225,13 +3229,13 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>74</v>
@@ -3243,7 +3247,7 @@
         <v>74</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>74</v>
@@ -3254,14 +3258,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3280,16 +3284,16 @@
         <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3327,19 +3331,19 @@
         <v>74</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3351,13 +3355,13 @@
         <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>74</v>
@@ -3368,10 +3372,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3382,31 +3386,31 @@
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>74</v>
@@ -3431,13 +3435,13 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -3455,39 +3459,39 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3498,7 +3502,7 @@
         <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -3507,29 +3511,29 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>74</v>
@@ -3547,13 +3551,13 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>74</v>
@@ -3571,39 +3575,39 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3614,7 +3618,7 @@
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -3626,13 +3630,13 @@
         <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3683,13 +3687,13 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>74</v>
@@ -3701,7 +3705,7 @@
         <v>74</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>74</v>
@@ -3712,14 +3716,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3738,16 +3742,16 @@
         <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3785,19 +3789,19 @@
         <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3809,13 +3813,13 @@
         <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>74</v>
@@ -3826,10 +3830,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3849,22 +3853,22 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>74</v>
@@ -3913,7 +3917,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3925,27 +3929,27 @@
         <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3953,10 +3957,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -3965,29 +3969,29 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>74</v>
@@ -4029,39 +4033,39 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4072,7 +4076,7 @@
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -4081,22 +4085,22 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>74</v>
@@ -4109,7 +4113,7 @@
         <v>74</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>74</v>
@@ -4145,39 +4149,39 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4188,7 +4192,7 @@
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -4197,19 +4201,19 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4223,7 +4227,7 @@
         <v>74</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>74</v>
@@ -4259,39 +4263,39 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4302,7 +4306,7 @@
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>74</v>
@@ -4311,16 +4315,16 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4371,39 +4375,39 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4414,7 +4418,7 @@
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -4423,19 +4427,19 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4485,39 +4489,39 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4537,20 +4541,20 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>74</v>
@@ -4599,7 +4603,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4611,13 +4615,13 @@
         <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
@@ -4628,10 +4632,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4651,20 +4655,20 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>74</v>
@@ -4713,7 +4717,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4725,13 +4729,13 @@
         <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>74</v>
@@ -4742,10 +4746,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4753,31 +4757,31 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4803,13 +4807,13 @@
         <v>74</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>74</v>
@@ -4827,28 +4831,28 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>74</v>
@@ -4856,10 +4860,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4882,16 +4886,16 @@
         <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4917,13 +4921,13 @@
         <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>74</v>
@@ -4941,7 +4945,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4953,13 +4957,13 @@
         <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>74</v>
@@ -4970,10 +4974,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4984,7 +4988,7 @@
         <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -4993,16 +4997,16 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5029,13 +5033,13 @@
         <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>74</v>
@@ -5053,28 +5057,28 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>74</v>
@@ -5082,10 +5086,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5093,10 +5097,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
@@ -5105,19 +5109,19 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5143,50 +5147,50 @@
         <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>74</v>
@@ -5194,23 +5198,23 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
@@ -5219,19 +5223,19 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5281,28 +5285,28 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>74</v>
@@ -5310,10 +5314,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5321,10 +5325,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -5333,16 +5337,16 @@
         <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5393,39 +5397,39 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5436,7 +5440,7 @@
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
@@ -5445,16 +5449,16 @@
         <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5505,25 +5509,25 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>74</v>
@@ -5534,10 +5538,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5548,7 +5552,7 @@
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
@@ -5557,19 +5561,19 @@
         <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5619,28 +5623,28 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>74</v>
@@ -5648,10 +5652,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5662,7 +5666,7 @@
         <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
@@ -5671,16 +5675,16 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5731,28 +5735,28 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>74</v>
@@ -5760,10 +5764,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5774,7 +5778,7 @@
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5786,13 +5790,13 @@
         <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5843,28 +5847,28 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>74</v>
@@ -5872,10 +5876,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5898,16 +5902,16 @@
         <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5957,7 +5961,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5969,13 +5973,13 @@
         <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>74</v>
@@ -5986,10 +5990,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6012,16 +6016,16 @@
         <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6047,29 +6051,29 @@
         <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -6081,16 +6085,16 @@
         <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>74</v>
@@ -6098,13 +6102,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>74</v>
@@ -6114,7 +6118,7 @@
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -6126,16 +6130,16 @@
         <v>74</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6161,13 +6165,13 @@
         <v>74</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>74</v>
@@ -6185,7 +6189,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6197,16 +6201,16 @@
         <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>74</v>
@@ -6214,10 +6218,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6228,7 +6232,7 @@
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>74</v>
@@ -6240,13 +6244,13 @@
         <v>74</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6297,13 +6301,13 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>74</v>
@@ -6315,7 +6319,7 @@
         <v>74</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>74</v>
@@ -6326,14 +6330,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6352,16 +6356,16 @@
         <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6399,19 +6403,19 @@
         <v>74</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6423,13 +6427,13 @@
         <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>74</v>
@@ -6440,10 +6444,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6463,22 +6467,22 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>74</v>
@@ -6527,7 +6531,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6539,27 +6543,27 @@
         <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6570,7 +6574,7 @@
         <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
@@ -6582,13 +6586,13 @@
         <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6639,13 +6643,13 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>74</v>
@@ -6657,7 +6661,7 @@
         <v>74</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>74</v>
@@ -6668,14 +6672,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6694,16 +6698,16 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6741,19 +6745,19 @@
         <v>74</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6765,13 +6769,13 @@
         <v>74</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>74</v>
@@ -6782,10 +6786,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6793,10 +6797,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>74</v>
@@ -6805,29 +6809,29 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>74</v>
@@ -6869,39 +6873,39 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6912,7 +6916,7 @@
         <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>74</v>
@@ -6921,19 +6925,19 @@
         <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6983,39 +6987,39 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7023,10 +7027,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>74</v>
@@ -7035,20 +7039,20 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>74</v>
@@ -7097,39 +7101,39 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7137,10 +7141,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>74</v>
@@ -7149,20 +7153,20 @@
         <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>74</v>
@@ -7211,39 +7215,39 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7254,7 +7258,7 @@
         <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>74</v>
@@ -7263,22 +7267,22 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>74</v>
@@ -7327,39 +7331,39 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7370,7 +7374,7 @@
         <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>74</v>
@@ -7379,22 +7383,22 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>74</v>
@@ -7443,42 +7447,42 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>74</v>
@@ -7488,7 +7492,7 @@
         <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>74</v>
@@ -7500,16 +7504,16 @@
         <v>74</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7535,13 +7539,13 @@
         <v>74</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>74</v>
@@ -7559,7 +7563,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7571,16 +7575,16 @@
         <v>74</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>74</v>
@@ -7588,10 +7592,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7602,7 +7606,7 @@
         <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
@@ -7614,13 +7618,13 @@
         <v>74</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7671,13 +7675,13 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>74</v>
@@ -7689,7 +7693,7 @@
         <v>74</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>74</v>
@@ -7700,14 +7704,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7726,16 +7730,16 @@
         <v>74</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7773,19 +7777,19 @@
         <v>74</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7797,13 +7801,13 @@
         <v>74</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>74</v>
@@ -7814,10 +7818,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7837,22 +7841,22 @@
         <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -7901,7 +7905,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -7913,27 +7917,27 @@
         <v>74</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7944,7 +7948,7 @@
         <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>74</v>
@@ -7956,13 +7960,13 @@
         <v>74</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8013,13 +8017,13 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>74</v>
@@ -8031,7 +8035,7 @@
         <v>74</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>74</v>
@@ -8042,14 +8046,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8068,16 +8072,16 @@
         <v>74</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8115,19 +8119,19 @@
         <v>74</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8139,13 +8143,13 @@
         <v>74</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>74</v>
@@ -8156,10 +8160,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8167,10 +8171,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>74</v>
@@ -8179,29 +8183,29 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>74</v>
@@ -8243,39 +8247,39 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8286,7 +8290,7 @@
         <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>74</v>
@@ -8295,19 +8299,19 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8357,39 +8361,39 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8397,10 +8401,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>74</v>
@@ -8409,20 +8413,20 @@
         <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>74</v>
@@ -8471,39 +8475,39 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8511,10 +8515,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>74</v>
@@ -8523,20 +8527,20 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>74</v>
@@ -8585,39 +8589,39 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8628,7 +8632,7 @@
         <v>75</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>74</v>
@@ -8637,22 +8641,22 @@
         <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>74</v>
@@ -8701,39 +8705,39 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8744,7 +8748,7 @@
         <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>74</v>
@@ -8753,22 +8757,22 @@
         <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>74</v>
@@ -8817,39 +8821,39 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8872,16 +8876,16 @@
         <v>74</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8931,7 +8935,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -8943,16 +8947,16 @@
         <v>74</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>74</v>
@@ -8960,10 +8964,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8986,13 +8990,13 @@
         <v>74</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9043,7 +9047,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -9055,13 +9059,13 @@
         <v>74</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>74</v>
@@ -9072,10 +9076,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9098,16 +9102,16 @@
         <v>74</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9157,7 +9161,7 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -9169,13 +9173,13 @@
         <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>74</v>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-MedicationStatement.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-MedicationStatement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="448">
   <si>
     <t>Property</t>
   </si>
@@ -947,8 +947,8 @@
     <t>MedicationStatement.medication[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Medication)
-</t>
+    <t>CodeableConcept
+Reference(Medication)</t>
   </si>
   <si>
     <t>What medication was taken</t>
@@ -970,9 +970,6 @@
 </t>
   </si>
   <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Event.code</t>
   </si>
   <si>
@@ -988,7 +985,7 @@
     <t>medicationReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.no/fhir/StructureDefinition/no-basis-Medication) &lt;&lt;bundled&gt;&gt;
+    <t xml:space="preserve">Reference(http://hl7.no/fhir/StructureDefinition/no-basis-Medication)
 </t>
   </si>
   <si>
@@ -5166,7 +5163,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>301</v>
+        <v>168</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>293</v>
@@ -5184,13 +5181,13 @@
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>74</v>
@@ -5198,20 +5195,20 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>293</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>85</v>
@@ -5226,7 +5223,7 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>295</v>
@@ -5300,13 +5297,13 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>74</v>
@@ -5314,10 +5311,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5340,13 +5337,13 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5397,7 +5394,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>85</v>
@@ -5412,24 +5409,24 @@
         <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>315</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5452,13 +5449,13 @@
         <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5509,7 +5506,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5524,10 +5521,10 @@
         <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>74</v>
@@ -5538,10 +5535,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5564,16 +5561,16 @@
         <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5623,7 +5620,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5638,13 +5635,13 @@
         <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>74</v>
@@ -5652,10 +5649,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5678,13 +5675,13 @@
         <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5735,7 +5732,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5753,10 +5750,10 @@
         <v>74</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>74</v>
@@ -5764,10 +5761,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5790,13 +5787,13 @@
         <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5847,7 +5844,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5865,10 +5862,10 @@
         <v>74</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>74</v>
@@ -5876,10 +5873,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5902,16 +5899,16 @@
         <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5961,7 +5958,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5979,7 +5976,7 @@
         <v>74</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>74</v>
@@ -5990,10 +5987,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6019,13 +6016,13 @@
         <v>183</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6054,16 +6051,16 @@
         <v>281</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="Z38" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="Z38" t="s" s="2">
+      <c r="AA38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB38" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
@@ -6073,7 +6070,7 @@
         <v>168</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -6088,13 +6085,13 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>74</v>
@@ -6102,13 +6099,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C39" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>74</v>
@@ -6133,13 +6130,13 @@
         <v>183</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6168,11 +6165,11 @@
         <v>281</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="Z39" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>353</v>
-      </c>
       <c r="AA39" t="s" s="2">
         <v>74</v>
       </c>
@@ -6189,7 +6186,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6204,13 +6201,13 @@
         <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>74</v>
@@ -6218,10 +6215,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6330,10 +6327,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B41" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6444,10 +6441,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B42" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6560,10 +6557,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B43" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6672,10 +6669,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6786,10 +6783,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6815,65 +6812,65 @@
         <v>99</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF45" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6891,21 +6888,21 @@
         <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>379</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B46" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6931,13 +6928,13 @@
         <v>158</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6987,7 +6984,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -7005,21 +7002,21 @@
         <v>74</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>387</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7045,14 +7042,14 @@
         <v>105</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>74</v>
@@ -7101,7 +7098,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7119,21 +7116,21 @@
         <v>74</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>395</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B48" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7159,14 +7156,14 @@
         <v>158</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>74</v>
@@ -7215,7 +7212,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7233,21 +7230,21 @@
         <v>74</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>403</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B49" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7270,19 +7267,19 @@
         <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>74</v>
@@ -7331,7 +7328,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7349,21 +7346,21 @@
         <v>74</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>413</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7476,13 +7473,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C51" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>74</v>
@@ -7507,13 +7504,13 @@
         <v>183</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7542,11 +7539,11 @@
         <v>281</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>353</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>74</v>
       </c>
@@ -7563,7 +7560,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7578,13 +7575,13 @@
         <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>74</v>
@@ -7592,10 +7589,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7704,10 +7701,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7818,10 +7815,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7934,10 +7931,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8046,10 +8043,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8160,10 +8157,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8189,23 +8186,23 @@
         <v>99</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>74</v>
@@ -8247,7 +8244,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8265,21 +8262,21 @@
         <v>74</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>379</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8305,13 +8302,13 @@
         <v>158</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8361,7 +8358,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8379,21 +8376,21 @@
         <v>74</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>387</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8419,14 +8416,14 @@
         <v>105</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>74</v>
@@ -8475,7 +8472,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8493,21 +8490,21 @@
         <v>74</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>395</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8533,14 +8530,14 @@
         <v>158</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>74</v>
@@ -8589,7 +8586,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8607,21 +8604,21 @@
         <v>74</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>403</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8644,19 +8641,19 @@
         <v>86</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>74</v>
@@ -8705,7 +8702,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8723,21 +8720,21 @@
         <v>74</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>413</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8850,10 +8847,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8876,16 +8873,16 @@
         <v>74</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8935,7 +8932,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -8950,13 +8947,13 @@
         <v>97</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AL63" t="s" s="2">
-        <v>436</v>
-      </c>
       <c r="AM63" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>74</v>
@@ -8964,10 +8961,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8990,13 +8987,13 @@
         <v>74</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9047,7 +9044,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -9062,10 +9059,10 @@
         <v>97</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>74</v>
@@ -9076,10 +9073,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9102,16 +9099,16 @@
         <v>74</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9161,7 +9158,7 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -9179,7 +9176,7 @@
         <v>74</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>74</v>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-MedicationStatement.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-MedicationStatement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-test</t>
+    <t>2.2.2-test</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-MedicationStatement.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-MedicationStatement.xlsx
@@ -370,7 +370,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -625,7 +625,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -795,7 +795,7 @@
     <t>MedicationStatement.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -820,7 +820,7 @@
     <t>MedicationStatement.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest|CarePlan|ServiceRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|4.0.1|CarePlan|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -842,7 +842,7 @@
     <t>MedicationStatement.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Observation)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Observation|4.0.1)
 </t>
   </si>
   <si>
@@ -914,7 +914,7 @@
     <t>A coded concept indicating the reason for the status of the statement.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/reason-medication-status-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/reason-medication-status-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -935,7 +935,7 @@
     <t>A coded concept identifying where the medication included in the MedicationStatement is expected to be consumed or administered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-statement-category</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-statement-category|4.0.1</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication usage"].value</t>
@@ -948,7 +948,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(Medication)</t>
+Reference(Medication|4.0.1)</t>
   </si>
   <si>
     <t>What medication was taken</t>
@@ -963,7 +963,7 @@
     <t>A coded concept identifying the substance or product being taken.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -1017,7 +1017,7 @@
     <t>MedicationStatement.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(Encounter|4.0.1|EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -1080,7 +1080,7 @@
     <t>MedicationStatement.informationSource</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|RelatedPerson|Organization)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1099,7 +1099,7 @@
     <t>MedicationStatement.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1130,7 +1130,7 @@
     <t>A coded concept identifying why the medication is being taken.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:coding.system}
@@ -1366,7 +1366,7 @@
     <t>MedicationStatement.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|DiagnosticReport|4.0.1)
 </t>
   </si>
   <si>
@@ -1724,17 +1724,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.66015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="51.4765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.62890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.43359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.6875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="105.265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1743,26 +1743,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="124.08984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="38.25" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="106.38671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.28125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="140.73046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="45.6171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="120.65234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="39.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-MedicationStatement.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-MedicationStatement.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/no-basis-MedicationStatement</t>
+    <t>http://hl7.no/fhir/ig/StructureDefinition/no-basis-MedicationStatement</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.2-test</t>
+    <t>2.2.3-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -985,14 +985,14 @@
     <t>medicationReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.no/fhir/StructureDefinition/no-basis-Medication)
+    <t xml:space="preserve">Reference(http://hl7.no/fhir/ig/StructureDefinition/no-basis-Medication)
 </t>
   </si>
   <si>
     <t>MedicationStatement.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.no/fhir/StructureDefinition/no-basis-Patient)
+    <t xml:space="preserve">Reference(http://hl7.no/fhir/ig/StructureDefinition/no-basis-Patient)
 </t>
   </si>
   <si>
